--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1122.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1122.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.133659068752454</v>
+        <v>1.16380786895752</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.369027853012085</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.394299030303955</v>
       </c>
       <c r="E1">
-        <v>1.149877103058953</v>
+        <v>1.21688437461853</v>
       </c>
     </row>
   </sheetData>
